--- a/interface/data.xlsx
+++ b/interface/data.xlsx
@@ -473,22 +473,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>51</v>
+        <v>59.8</v>
       </c>
       <c r="B2">
-        <v>52</v>
+        <v>55.6</v>
       </c>
       <c r="C2">
-        <v>58.5</v>
+        <v>70.06666666666666</v>
       </c>
       <c r="D2">
-        <v>67.5</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="E2">
-        <v>63.5</v>
+        <v>89.93333333333334</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>51.06666666666667</v>
       </c>
     </row>
   </sheetData>
@@ -544,40 +544,40 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2">
-        <v>62.33333333333334</v>
+        <v>53.1904761904762</v>
       </c>
       <c r="B2">
-        <v>61.66666666666666</v>
+        <v>55.73333333333333</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>59.6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>61.80952380952382</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>73.29411764705883</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>71.06666666666666</v>
       </c>
       <c r="G2">
-        <v>61.33333333333334</v>
+        <v>75.5625</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>72.77777777777777</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>78.05555555555556</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>79.51515151515152</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>76.79166666666667</v>
       </c>
       <c r="L2">
-        <v>63.16666666666666</v>
+        <v>83.28571428571428</v>
       </c>
     </row>
   </sheetData>
@@ -636,40 +636,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>57.66666666666666</v>
       </c>
       <c r="C2">
-        <v>61.66666666666666</v>
+        <v>58.85714285714286</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>58.88888888888889</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>58.1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>73.45454545454545</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>72.16666666666667</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>75.61904761904762</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>80.06666666666666</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>77.75</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>78.22222222222223</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>75.08333333333333</v>
       </c>
       <c r="M2">
-        <v>63.16666666666666</v>
+        <v>82.96296296296296</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -677,40 +677,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62.33333333333334</v>
+        <v>51.4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>65.18181818181819</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>69.80952380952381</v>
       </c>
       <c r="H3">
-        <v>61.33333333333334</v>
+        <v>75.51851851851852</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>69.13333333333333</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>78.20833333333333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>81.06666666666668</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>77.36111111111113</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>83.86666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -769,40 +769,40 @@
         <v>18</v>
       </c>
       <c r="B2">
-        <v>62.33333333333334</v>
+        <v>58.25</v>
       </c>
       <c r="C2">
-        <v>61.66666666666666</v>
+        <v>61.6</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>74.5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>73.61538461538463</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>73.45833333333333</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>80.33333333333333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>78.94444444444444</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>79.62962962962963</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>85.26666666666667</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>78.70833333333333</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>84.85714285714285</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -810,40 +810,40 @@
         <v>19</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>46.44444444444445</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>52.79999999999999</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>55.875</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>59.73333333333333</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>72.25</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>68.33333333333333</v>
       </c>
       <c r="H3">
-        <v>61.33333333333334</v>
+        <v>69.42857142857143</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>68.66666666666667</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>73.33333333333333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>74.72222222222223</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>74.875</v>
       </c>
       <c r="M3">
-        <v>63.16666666666666</v>
+        <v>81.71428571428571</v>
       </c>
     </row>
   </sheetData>
@@ -902,40 +902,40 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>60.22222222222222</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>58.55555555555556</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>62.83333333333334</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>73.84848484848483</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>71.58333333333333</v>
       </c>
       <c r="H2">
-        <v>61.33333333333334</v>
+        <v>79.22222222222221</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>72.71428571428571</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>81.38095238095238</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>86.2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>79.44444444444444</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>88.14814814814815</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -943,40 +943,40 @@
         <v>21</v>
       </c>
       <c r="B3">
-        <v>62.33333333333334</v>
+        <v>47.91666666666666</v>
       </c>
       <c r="C3">
-        <v>61.66666666666666</v>
+        <v>51.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>53.2</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>60.87878787878788</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>72.27777777777777</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>70.47619047619048</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>70.85714285714286</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>72.83333333333333</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>73.94444444444444</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>73.38095238095237</v>
       </c>
       <c r="M3">
-        <v>63.16666666666666</v>
+        <v>74.53333333333335</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
